--- a/src/main/resources/Music/Checks All Publications.xlsx
+++ b/src/main/resources/Music/Checks All Publications.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Auteur</t>
   </si>
@@ -84,10 +84,10 @@
     <t>Uncut</t>
   </si>
   <si>
-    <t>2006 - 2010 + 1999 - 2005</t>
-  </si>
-  <si>
-    <t>2006-2010 + 2012 + 1998 - 2005</t>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Autres</t>
   </si>
 </sst>
 </file>
@@ -897,10 +897,14 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -913,7 +917,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -974,7 +978,10 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
